--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FED698-7BA0-48B2-B83E-9B87ADA36225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92EBC9E-B01F-4625-A4DE-AD400261138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="201">
   <si>
     <t>type</t>
   </si>
@@ -399,9 +399,6 @@
     <t>3. Sélectionnez le Poste de santé</t>
   </si>
   <si>
-    <t>select_one yesNo</t>
-  </si>
-  <si>
     <t>6. L'enfant a-t-il donné son consentement et le consentement de ses parents ou tuteurs ?</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>p_note_thanks</t>
   </si>
   <si>
-    <t>Note additionnelle :</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -468,9 +462,6 @@
     <t>Dans un village situé à plus de 10 km</t>
   </si>
   <si>
-    <t>12. Est-ce que vous fréquentez les mares d’eau (marigot, fleuve, rivière, marre d’eau temporaire, …) ?</t>
-  </si>
-  <si>
     <t>p_annes_vecu_village</t>
   </si>
   <si>
@@ -594,15 +585,6 @@
     <t>Ne.sait.pas</t>
   </si>
   <si>
-    <t>4. Sélectionnez le nom de l'école</t>
-  </si>
-  <si>
-    <t>5. Sélectionnez le code de l'école</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_202403_2_child</t>
-  </si>
-  <si>
     <t xml:space="preserve">${p_consent} = 'A.donne' </t>
   </si>
   <si>
@@ -624,19 +606,52 @@
     <t>if(${last-saved#p_index}!=null,${last-saved#p_index} + 1,1)</t>
   </si>
   <si>
-    <t>. &gt;= 10 and . &lt;= 14</t>
-  </si>
-  <si>
-    <t>L’âge doit être compris entre 10 et 14 ans</t>
-  </si>
-  <si>
     <t>concat(${p_recorder}, '_', ${p_site_code}, '_', ${p_index})</t>
   </si>
   <si>
     <t>7.b. Code unique du participant : Veuillez le recopier exactement tel qu'il est  quelque part entre autres sur les tests de diagnostique.</t>
   </si>
   <si>
-    <t>(2024 Mar) - 2. SCH/STH – Participant</t>
+    <t>(2024 Mar) - 2. SCH/STH – Participant V2</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_202403_2_child_v2</t>
+  </si>
+  <si>
+    <t>4. Sélectionnez le nom de l'école / Village</t>
+  </si>
+  <si>
+    <t>5. Sélectionnez le code de l'école / Village</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 14</t>
+  </si>
+  <si>
+    <t>L’âge doit être compris entre 5 et 14 ans</t>
+  </si>
+  <si>
+    <t>12. Lesquelles des activités suivantes effectuez-vous dans des points d’eau (marigot, fleuve, rivière, marre d’eau temporaire)</t>
+  </si>
+  <si>
+    <t>eauActivite</t>
+  </si>
+  <si>
+    <t>Traversée.de.cours.d'eau</t>
+  </si>
+  <si>
+    <t>Puisage.de.l'eau.dans.des.cours.d'eau</t>
+  </si>
+  <si>
+    <t>16. Note additionnelle :</t>
+  </si>
+  <si>
+    <t>Laver.le.bétail</t>
+  </si>
+  <si>
+    <t>Laver le bétail</t>
+  </si>
+  <si>
+    <t>select_multiple eauActivite</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1156,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
@@ -1201,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1284,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
@@ -1306,7 +1321,7 @@
         <v>104</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -1362,7 +1377,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>23</v>
@@ -1383,20 +1398,20 @@
         <v>26</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="8"/>
       <c r="F10" s="26"/>
       <c r="G10" s="9"/>
       <c r="H10" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>13</v>
@@ -1412,20 +1427,20 @@
         <v>14</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="8"/>
       <c r="F11" s="26"/>
       <c r="G11" s="9"/>
       <c r="H11" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>13</v>
@@ -1444,7 +1459,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
@@ -1455,7 +1470,7 @@
         <v>192</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="8" t="s">
@@ -1472,14 +1487,14 @@
         <v>29</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="22"/>
       <c r="H13" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8" t="s">
@@ -1496,14 +1511,14 @@
         <v>110</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="22"/>
       <c r="H14" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="8" t="s">
@@ -1517,21 +1532,21 @@
         <v>26</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="8" t="s">
@@ -1554,22 +1569,22 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="22"/>
       <c r="H17" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="25" t="s">
@@ -1583,17 +1598,17 @@
         <v>24</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="22"/>
       <c r="H18" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="25" t="s">
@@ -1604,20 +1619,20 @@
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="22"/>
       <c r="H19" s="25" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="25" t="s">
@@ -1631,17 +1646,17 @@
         <v>24</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="22"/>
       <c r="H20" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="25" t="s">
@@ -1655,17 +1670,17 @@
         <v>24</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="22"/>
       <c r="H21" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="25" t="s">
@@ -1689,7 +1704,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -1704,7 +1719,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
@@ -1721,17 +1736,17 @@
         <v>18</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -1796,11 +1811,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46:B49"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1920,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -1917,7 +1932,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>48</v>
@@ -2266,10 +2281,10 @@
         <v>112</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,10 +2292,10 @@
         <v>112</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,48 +2303,48 @@
         <v>112</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>60</v>
@@ -2340,214 +2355,313 @@
     </row>
     <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="C53" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D55" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>158</v>
-      </c>
       <c r="C59" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D60" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>163</v>
-      </c>
       <c r="C64" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D66" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2675,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2583,10 +2697,10 @@
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92EBC9E-B01F-4625-A4DE-AD400261138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A817C30-70C1-4B08-9BA2-A29E9B416398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,9 +636,6 @@
     <t>eauActivite</t>
   </si>
   <si>
-    <t>Traversée.de.cours.d'eau</t>
-  </si>
-  <si>
     <t>Puisage.de.l'eau.dans.des.cours.d'eau</t>
   </si>
   <si>
@@ -652,6 +649,9 @@
   </si>
   <si>
     <t>select_multiple eauActivite</t>
+  </si>
+  <si>
+    <t>Traversée.de.cours.d.eau</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>128</v>
@@ -1719,7 +1719,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
@@ -1815,7 +1815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2603,7 @@
         <v>194</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>80</v>
@@ -2614,7 +2614,7 @@
         <v>194</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>82</v>
@@ -2647,10 +2647,10 @@
         <v>194</v>
       </c>
       <c r="B80" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="34" t="s">
         <v>198</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A817C30-70C1-4B08-9BA2-A29E9B416398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D635450-B1B8-4090-89D8-6888D7E24C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="200">
   <si>
     <t>type</t>
   </si>
@@ -634,9 +634,6 @@
   </si>
   <si>
     <t>eauActivite</t>
-  </si>
-  <si>
-    <t>Puisage.de.l'eau.dans.des.cours.d'eau</t>
   </si>
   <si>
     <t>16. Note additionnelle :</t>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>128</v>
@@ -1719,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
@@ -1814,8 +1811,8 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B73:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2600,7 @@
         <v>194</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>80</v>
@@ -2614,7 +2611,7 @@
         <v>194</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>82</v>
@@ -2647,10 +2644,10 @@
         <v>194</v>
       </c>
       <c r="B80" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="34" t="s">
         <v>197</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">

--- a/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/sn_sch_sth_impact_202403_2_child.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D635450-B1B8-4090-89D8-6888D7E24C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AACE5-075D-4363-97DB-EF877FD66172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>p_consent_note</t>
   </si>
   <si>
-    <t>Bonjour ! Je suis ici au nom du ministère de la Santé. Nous menons une enquête pour déterminer la présence de schistosomiase (SCH) et des géo-helminthiases (STH) dans votre école. Je vais vous poser quelques questions sur le mode et le mécanisme de transmission et apprécierais également de prélever des échantillons de selles et d'urine auprès de vous. Si vous souhaitez participer à l'enquête, dites-le-moi et je noterai vos réponses et vous fournirai des récipients de selles et d'urine. Si vous êtes d'accord, l'enquête ne prendra que quelques minutes. Participer à l'enquête scolaire vous sera directement bénéfique car en cas de diagnostic de vers, vous recevrez immédiatement des médicaments vermifuges. Votre communauté et votre école en bénéficieront également directement, car les résultats de cette enquête aideront le ministère de la Santé à mettre en œuvre des activités de déparasitage pour les enfants âgés de 5 à 14 ans, si les résultats de laboratoire révèlent la nécessité d'interventions. Vous pouvez refuser sans pénalité. Souhaitez-vous participer à notre enquête ?</t>
-  </si>
-  <si>
     <t>select_one consent_list</t>
   </si>
   <si>
@@ -612,12 +609,6 @@
     <t>7.b. Code unique du participant : Veuillez le recopier exactement tel qu'il est  quelque part entre autres sur les tests de diagnostique.</t>
   </si>
   <si>
-    <t>(2024 Mar) - 2. SCH/STH – Participant V2</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_202403_2_child_v2</t>
-  </si>
-  <si>
     <t>4. Sélectionnez le nom de l'école / Village</t>
   </si>
   <si>
@@ -649,6 +640,15 @@
   </si>
   <si>
     <t>Traversée.de.cours.d.eau</t>
+  </si>
+  <si>
+    <t>Le message introductif est utile pour aider l'enquêteur à se remémorer le contexte de l'enquête. Cependant, j'ai quelques suggestions concernant le texte : remplacer "Ministère de la santé" par "Ministère de la santé et de l'action sociale", utiliser "votre école/village" au lieu de "votre école" pour les sites sans écoles, et substituer "l'enquête scolaire/communautaire" à "l'enquête scolaire". Pour la partie sur le traitement, remplacer "vous recevrez immédiatement des médicaments vermifuges" par "vous recevrez immédiatement des médicaments", car il ne s'agit pas uniquement de vermifuges. Ensuite, remplacer "diagnostic de vers" par "en cas de résultat positif" pour la SCH, qui consiste plutôt en la détection d'oeufs dans les urines ou les selles. Enfin, il pourrait être judicieux de poser la question 12, portant sur la fréquentation des marigots, mares et rivières, après les questions 13 et 14, qui traitent des connaissances sur la maladie et ses manifestations.</t>
+  </si>
+  <si>
+    <t>(2024 Mar) - 2. SCH/STH – Participant V3</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_202403_2_child_v3</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
@@ -1213,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1224,17 +1224,17 @@
         <v>12</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
@@ -1274,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
@@ -1315,10 +1315,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -1340,7 +1340,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
@@ -1368,16 +1368,16 @@
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1392,23 +1392,23 @@
     </row>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>182</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>183</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="8"/>
       <c r="F10" s="26"/>
       <c r="G10" s="9"/>
       <c r="H10" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>13</v>
@@ -1424,20 +1424,20 @@
         <v>14</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="8"/>
       <c r="F11" s="26"/>
       <c r="G11" s="9"/>
       <c r="H11" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>13</v>
@@ -1450,24 +1450,24 @@
     </row>
     <row r="12" spans="1:13" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
       <c r="F12" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="8" t="s">
@@ -1478,20 +1478,20 @@
     </row>
     <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="22"/>
       <c r="H13" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8" t="s">
@@ -1502,20 +1502,20 @@
     </row>
     <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="22"/>
       <c r="H14" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="8" t="s">
@@ -1526,24 +1526,24 @@
     </row>
     <row r="15" spans="1:13" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>140</v>
-      </c>
       <c r="H15" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="8" t="s">
@@ -1568,20 +1568,20 @@
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="22"/>
       <c r="H17" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="25" t="s">
@@ -1592,20 +1592,20 @@
     </row>
     <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="22"/>
       <c r="H18" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="25" t="s">
@@ -1616,20 +1616,20 @@
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="22"/>
       <c r="H19" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="25" t="s">
@@ -1640,20 +1640,20 @@
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="22"/>
       <c r="H20" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="25" t="s">
@@ -1664,20 +1664,20 @@
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="22"/>
       <c r="H21" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="25" t="s">
@@ -1691,17 +1691,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
@@ -1733,17 +1733,17 @@
         <v>18</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="11"/>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="11"/>
@@ -1825,7 +1825,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1834,16 +1834,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1854,25 +1854,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="28"/>
     </row>
@@ -1884,25 +1884,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="30"/>
     </row>
@@ -1914,25 +1914,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="28"/>
     </row>
@@ -1944,73 +1944,73 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="28"/>
     </row>
@@ -2022,37 +2022,37 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="28"/>
     </row>
@@ -2064,601 +2064,601 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="C26" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="C51" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="D55" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="C57" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D60" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="C62" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>161</v>
       </c>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>162</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>163</v>
       </c>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="34" t="s">
         <v>194</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2683,24 +2683,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
